--- a/004 - lab3/Результат.xlsx
+++ b/004 - lab3/Результат.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E51213-96DB-534F-94DC-6A1B133D73F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFA305A-1E0E-FB4B-8510-D8BA6AAF5C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34860" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71620" yWindow="5540" windowWidth="21600" windowHeight="26540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>RNSTUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +131,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -174,13 +178,19 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -341,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,12 +395,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -403,7 +407,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,13 +701,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="17"/>
+    <col min="1" max="1" width="10" style="15"/>
     <col min="2" max="2" width="8.6640625" style="11" customWidth="1"/>
     <col min="3" max="5" width="15.1640625" style="11" customWidth="1"/>
     <col min="6" max="8" width="10" style="10"/>
@@ -703,14 +716,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" thickBot="1">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -728,10 +744,12 @@
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>50.605899999999998</v>
+      </c>
       <c r="D3" s="1">
         <f>E3-C3</f>
-        <v>50.5</v>
+        <v>-0.10589999999999833</v>
       </c>
       <c r="E3" s="2">
         <v>50.5</v>
@@ -741,31 +759,36 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>813.31958519</v>
+      </c>
       <c r="D4" s="3">
         <f>E4-C4</f>
-        <v>816.75</v>
+        <v>3.430414810000002</v>
       </c>
       <c r="E4" s="4">
         <v>816.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1" thickTop="1">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="23" customHeight="1">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1" thickBot="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -783,10 +806,12 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>7.4184736688389296E-3</v>
+      </c>
       <c r="D9" s="1">
         <f>E9-C9</f>
-        <v>0</v>
+        <v>-7.4184736688389296E-3</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -796,24 +821,29 @@
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>0.99445347565311604</v>
+      </c>
       <c r="D10" s="3">
         <f>E10-C10</f>
-        <v>1</v>
+        <v>5.5465243468839631E-3</v>
       </c>
       <c r="E10" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
@@ -831,10 +861,12 @@
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>1.4188951164059899E-2</v>
+      </c>
       <c r="D13" s="1">
         <f>E13-C13</f>
-        <v>0</v>
+        <v>-1.4188951164059899E-2</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -844,34 +876,36 @@
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <v>1.0094672640854201</v>
+      </c>
       <c r="D14" s="3">
         <f>E14-C14</f>
-        <v>1</v>
+        <v>-9.4672640854200907E-3</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23" customHeight="1" thickTop="1">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="23" customHeight="1">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="2:11" ht="23" customHeight="1" thickBot="1">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
       <c r="B18" s="12" t="s">
@@ -891,10 +925,12 @@
       <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>1.01912919729235</v>
+      </c>
       <c r="D19" s="1">
         <f>E19-C19</f>
-        <v>1</v>
+        <v>-1.9129197292349964E-2</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -904,10 +940,12 @@
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>1.0255191579118601</v>
+      </c>
       <c r="D20" s="3">
         <f>E20-C20</f>
-        <v>1</v>
+        <v>-2.5519157911860102E-2</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -915,18 +953,18 @@
     </row>
     <row r="21" spans="2:11" ht="23" customHeight="1" thickTop="1"/>
     <row r="22" spans="2:11" ht="23" customHeight="1" thickBot="1">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="H22" s="15" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="H22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
       <c r="B23" s="5" t="s">
@@ -998,7 +1036,7 @@
         <f>K25-I25</f>
         <v>1.25</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="19">
         <v>1.25</v>
       </c>
     </row>

--- a/004 - lab3/Результат.xlsx
+++ b/004 - lab3/Результат.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFA305A-1E0E-FB4B-8510-D8BA6AAF5C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33143B78-02AF-D143-8056-1F2464511AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71620" yWindow="5540" windowWidth="21600" windowHeight="26540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68800" yWindow="3440" windowWidth="21600" windowHeight="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,7 +702,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -899,7 +899,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="2:11" ht="23" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="23" customHeight="1" thickBot="1">
       <c r="B17" s="20" t="s">
         <v>15</v>
       </c>
@@ -907,7 +907,10 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
@@ -921,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="23" customHeight="1" thickTop="1">
+    <row r="19" spans="1:11" ht="23" customHeight="1" thickTop="1">
       <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
@@ -936,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="23" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="23" customHeight="1" thickBot="1">
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
@@ -951,8 +954,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="23" customHeight="1" thickTop="1"/>
-    <row r="22" spans="2:11" ht="23" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="23" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:11" ht="23" customHeight="1" thickBot="1">
       <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
@@ -966,7 +969,10 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A23" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
@@ -992,14 +998,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="23" customHeight="1" thickTop="1">
+    <row r="24" spans="1:11" ht="23" customHeight="1" thickTop="1">
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>9.9456517302069702</v>
+      </c>
       <c r="D24" s="1">
         <f>E24-C24</f>
-        <v>10</v>
+        <v>5.4348269793029758E-2</v>
       </c>
       <c r="E24" s="13">
         <v>10</v>
@@ -1016,14 +1024,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="23" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="23" customHeight="1" thickBot="1">
       <c r="B25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>19.659616951309498</v>
+      </c>
       <c r="D25" s="3">
         <f>E25-C25</f>
-        <v>20</v>
+        <v>0.34038304869050151</v>
       </c>
       <c r="E25" s="14">
         <v>20</v>
@@ -1040,7 +1050,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="23" customHeight="1" thickTop="1"/>
+    <row r="26" spans="1:11" ht="23" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:E1"/>

--- a/004 - lab3/Результат.xlsx
+++ b/004 - lab3/Результат.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33143B78-02AF-D143-8056-1F2464511AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976FCDE7-6A2D-2D40-9814-4689AF7C89BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="3440" windowWidth="21600" windowHeight="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68800" yWindow="3940" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,13 +410,13 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -716,15 +716,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" thickBot="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -778,15 +778,15 @@
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1" thickBot="1">
       <c r="A7" s="16"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -833,15 +833,15 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -899,16 +899,16 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="23" customHeight="1" thickTop="1">
+    <row r="19" spans="1:5" ht="23" customHeight="1" thickTop="1">
       <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="23" customHeight="1" thickBot="1">
+    <row r="20" spans="1:5" ht="23" customHeight="1" thickBot="1">
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
@@ -954,23 +954,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="23" customHeight="1" thickTop="1"/>
-    <row r="22" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="B22" s="20" t="s">
+    <row r="21" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="H22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" ht="40" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="22" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -985,20 +979,8 @@
       <c r="E23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="23" customHeight="1" thickTop="1">
+    </row>
+    <row r="24" spans="1:5" ht="23" customHeight="1" thickTop="1">
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1012,19 +994,8 @@
       <c r="E24" s="13">
         <v>10</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <f>K24-I24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="23" customHeight="1" thickBot="1">
+    </row>
+    <row r="25" spans="1:5" ht="23" customHeight="1" thickBot="1">
       <c r="B25" s="9" t="s">
         <v>20</v>
       </c>
@@ -1038,23 +1009,73 @@
       <c r="E25" s="14">
         <v>20</v>
       </c>
-      <c r="H25" s="9" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
+    <row r="28" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="23" customHeight="1" thickTop="1">
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-2.2334743728753301E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <f>E30-C30</f>
+        <v>2.2334743728753301E-3</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
-        <f>K25-I25</f>
+      <c r="C31" s="3">
+        <v>1.2646687229237401</v>
+      </c>
+      <c r="D31" s="3">
+        <f>E31-C31</f>
+        <v>-1.4668722923740107E-2</v>
+      </c>
+      <c r="E31" s="19">
         <v>1.25</v>
       </c>
-      <c r="K25" s="19">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="23" customHeight="1" thickTop="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="23" customHeight="1" thickTop="1">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B11:E11"/>
